--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/L1cam-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/L1cam-Ephb2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="H2">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="I2">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="J2">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2298373333333333</v>
+        <v>0.2087793333333333</v>
       </c>
       <c r="N2">
-        <v>0.689512</v>
+        <v>0.626338</v>
       </c>
       <c r="O2">
-        <v>0.02491532190107932</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="P2">
-        <v>0.02491532190107933</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="Q2">
-        <v>1.684986139568889</v>
+        <v>1.122364082527333</v>
       </c>
       <c r="R2">
-        <v>15.16487525612</v>
+        <v>10.101276742746</v>
       </c>
       <c r="S2">
-        <v>0.00797867884928441</v>
+        <v>0.005357453762720894</v>
       </c>
       <c r="T2">
-        <v>0.007978678849284413</v>
+        <v>0.005357453762720894</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="H3">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="I3">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="J3">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>25.337258</v>
       </c>
       <c r="O3">
-        <v>0.9155546809347732</v>
+        <v>0.9204452022087118</v>
       </c>
       <c r="P3">
-        <v>0.9155546809347734</v>
+        <v>0.920445202208712</v>
       </c>
       <c r="Q3">
-        <v>61.91760048364779</v>
+        <v>45.40300656982067</v>
       </c>
       <c r="R3">
-        <v>557.2584043528301</v>
+        <v>408.6270591283861</v>
       </c>
       <c r="S3">
-        <v>0.2931897407201938</v>
+        <v>0.2167251359635374</v>
       </c>
       <c r="T3">
-        <v>0.2931897407201938</v>
+        <v>0.2167251359635374</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="H4">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="I4">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="J4">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.04220933333333334</v>
+        <v>0.05870933333333334</v>
       </c>
       <c r="N4">
-        <v>0.126628</v>
+        <v>0.176128</v>
       </c>
       <c r="O4">
-        <v>0.004575667111942756</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="P4">
-        <v>0.004575667111942757</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="Q4">
-        <v>0.3094455569755556</v>
+        <v>0.3156119237973333</v>
       </c>
       <c r="R4">
-        <v>2.78501001278</v>
+        <v>2.840507314176</v>
       </c>
       <c r="S4">
-        <v>0.001465274201648683</v>
+        <v>0.001506531004538294</v>
       </c>
       <c r="T4">
-        <v>0.001465274201648683</v>
+        <v>0.001506531004538294</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="H5">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="I5">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="J5">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5003796666666667</v>
+        <v>0.4594193333333333</v>
       </c>
       <c r="N5">
-        <v>1.501139</v>
+        <v>1.378258</v>
       </c>
       <c r="O5">
-        <v>0.05424323493030479</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="P5">
-        <v>0.0542432349303048</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="Q5">
-        <v>3.668389250029445</v>
+        <v>2.469764369487333</v>
       </c>
       <c r="R5">
-        <v>33.015503250265</v>
+        <v>22.227879325386</v>
       </c>
       <c r="S5">
-        <v>0.01737040978131773</v>
+        <v>0.01178908753436671</v>
       </c>
       <c r="T5">
-        <v>0.01737040978131773</v>
+        <v>0.01178908753436671</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="H6">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="I6">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="J6">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.006559666666666666</v>
+        <v>0.003065</v>
       </c>
       <c r="N6">
-        <v>0.019679</v>
+        <v>0.009195</v>
       </c>
       <c r="O6">
-        <v>0.0007110951218997493</v>
+        <v>0.0003340335262130221</v>
       </c>
       <c r="P6">
-        <v>0.0007110951218997495</v>
+        <v>0.0003340335262130222</v>
       </c>
       <c r="Q6">
-        <v>0.04809030479611111</v>
+        <v>0.016476946535</v>
       </c>
       <c r="R6">
-        <v>0.432812743165</v>
+        <v>0.148292518815</v>
       </c>
       <c r="S6">
-        <v>0.0002277152842518591</v>
+        <v>7.865048479929146E-05</v>
       </c>
       <c r="T6">
-        <v>0.0002277152842518592</v>
+        <v>7.865048479929149E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.488444</v>
       </c>
       <c r="I7">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="J7">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2298373333333333</v>
+        <v>0.2087793333333333</v>
       </c>
       <c r="N7">
-        <v>0.689512</v>
+        <v>0.626338</v>
       </c>
       <c r="O7">
-        <v>0.02491532190107932</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="P7">
-        <v>0.02491532190107933</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="Q7">
-        <v>0.03742088881422222</v>
+        <v>0.03399233756355555</v>
       </c>
       <c r="R7">
-        <v>0.336787999328</v>
+        <v>0.305931038072</v>
       </c>
       <c r="S7">
-        <v>0.0001771938932268301</v>
+        <v>0.0001622578445075236</v>
       </c>
       <c r="T7">
-        <v>0.0001771938932268302</v>
+        <v>0.0001622578445075236</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.488444</v>
       </c>
       <c r="I8">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="J8">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>25.337258</v>
       </c>
       <c r="O8">
-        <v>0.9155546809347732</v>
+        <v>0.9204452022087118</v>
       </c>
       <c r="P8">
-        <v>0.9155546809347734</v>
+        <v>0.920445202208712</v>
       </c>
       <c r="Q8">
         <v>1.375092405172444</v>
@@ -948,10 +948,10 @@
         <v>12.375831646552</v>
       </c>
       <c r="S8">
-        <v>0.006511282455871178</v>
+        <v>0.006563818367735967</v>
       </c>
       <c r="T8">
-        <v>0.00651128245587118</v>
+        <v>0.006563818367735967</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.488444</v>
       </c>
       <c r="I9">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="J9">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.04220933333333334</v>
+        <v>0.05870933333333334</v>
       </c>
       <c r="N9">
-        <v>0.126628</v>
+        <v>0.176128</v>
       </c>
       <c r="O9">
-        <v>0.004575667111942756</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="P9">
-        <v>0.004575667111942757</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="Q9">
-        <v>0.00687229853688889</v>
+        <v>0.009558740536888889</v>
       </c>
       <c r="R9">
-        <v>0.06185068683200001</v>
+        <v>0.086028664832</v>
       </c>
       <c r="S9">
-        <v>3.254143265313301E-05</v>
+        <v>4.562736036680056E-05</v>
       </c>
       <c r="T9">
-        <v>3.254143265313303E-05</v>
+        <v>4.562736036680056E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.488444</v>
       </c>
       <c r="I10">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="J10">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5003796666666667</v>
+        <v>0.4594193333333333</v>
       </c>
       <c r="N10">
-        <v>1.501139</v>
+        <v>1.378258</v>
       </c>
       <c r="O10">
-        <v>0.05424323493030479</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="P10">
-        <v>0.0542432349303048</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="Q10">
-        <v>0.08146914863511111</v>
+        <v>0.0748002056168889</v>
       </c>
       <c r="R10">
-        <v>0.733222337716</v>
+        <v>0.673201850552</v>
       </c>
       <c r="S10">
-        <v>0.0003857694480801357</v>
+        <v>0.0003570487057391545</v>
       </c>
       <c r="T10">
-        <v>0.0003857694480801359</v>
+        <v>0.0003570487057391545</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.488444</v>
       </c>
       <c r="I11">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="J11">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.006559666666666666</v>
+        <v>0.003065</v>
       </c>
       <c r="N11">
-        <v>0.019679</v>
+        <v>0.009195</v>
       </c>
       <c r="O11">
-        <v>0.0007110951218997493</v>
+        <v>0.0003340335262130221</v>
       </c>
       <c r="P11">
-        <v>0.0007110951218997495</v>
+        <v>0.0003340335262130222</v>
       </c>
       <c r="Q11">
-        <v>0.001068009941777778</v>
+        <v>0.0004990269533333334</v>
       </c>
       <c r="R11">
-        <v>0.009612089475999999</v>
+        <v>0.00449124258</v>
       </c>
       <c r="S11">
-        <v>5.057197880255586E-06</v>
+        <v>2.382037941569376E-06</v>
       </c>
       <c r="T11">
-        <v>5.057197880255588E-06</v>
+        <v>2.382037941569377E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="H12">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="I12">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="J12">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.2298373333333333</v>
+        <v>0.2087793333333333</v>
       </c>
       <c r="N12">
-        <v>0.689512</v>
+        <v>0.626338</v>
       </c>
       <c r="O12">
-        <v>0.02491532190107932</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="P12">
-        <v>0.02491532190107933</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="Q12">
-        <v>1.701386718776</v>
+        <v>2.086571347895333</v>
       </c>
       <c r="R12">
-        <v>15.312480468984</v>
+        <v>18.779142131058</v>
       </c>
       <c r="S12">
-        <v>0.008056338214761012</v>
+        <v>0.009959967262846921</v>
       </c>
       <c r="T12">
-        <v>0.008056338214761016</v>
+        <v>0.009959967262846921</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="H13">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="I13">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="J13">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>25.337258</v>
       </c>
       <c r="O13">
-        <v>0.9155546809347732</v>
+        <v>0.9204452022087118</v>
       </c>
       <c r="P13">
-        <v>0.9155546809347734</v>
+        <v>0.920445202208712</v>
       </c>
       <c r="Q13">
-        <v>62.52026687193401</v>
+        <v>84.40809367630867</v>
       </c>
       <c r="R13">
-        <v>562.682401847406</v>
+        <v>759.672843086778</v>
       </c>
       <c r="S13">
-        <v>0.296043462452661</v>
+        <v>0.4029106651844632</v>
       </c>
       <c r="T13">
-        <v>0.2960434624526611</v>
+        <v>0.4029106651844632</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="H14">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="I14">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="J14">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.04220933333333334</v>
+        <v>0.05870933333333334</v>
       </c>
       <c r="N14">
-        <v>0.126628</v>
+        <v>0.176128</v>
       </c>
       <c r="O14">
-        <v>0.004575667111942756</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="P14">
-        <v>0.004575667111942757</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="Q14">
-        <v>0.3124575024440001</v>
+        <v>0.5867497076053334</v>
       </c>
       <c r="R14">
-        <v>2.812117521996</v>
+        <v>5.280747368448</v>
       </c>
       <c r="S14">
-        <v>0.00147953624513969</v>
+        <v>0.002800770692614376</v>
       </c>
       <c r="T14">
-        <v>0.00147953624513969</v>
+        <v>0.002800770692614376</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="H15">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="I15">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="J15">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5003796666666667</v>
+        <v>0.4594193333333333</v>
       </c>
       <c r="N15">
-        <v>1.501139</v>
+        <v>1.378258</v>
       </c>
       <c r="O15">
-        <v>0.05424323493030479</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="P15">
-        <v>0.0542432349303048</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="Q15">
-        <v>3.704095008697</v>
+        <v>4.591504351975334</v>
       </c>
       <c r="R15">
-        <v>33.336855078273</v>
+        <v>41.32353916777799</v>
       </c>
       <c r="S15">
-        <v>0.01753948225900076</v>
+        <v>0.02191692753713949</v>
       </c>
       <c r="T15">
-        <v>0.01753948225900076</v>
+        <v>0.02191692753713949</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="H16">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="I16">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="J16">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.006559666666666666</v>
+        <v>0.003065</v>
       </c>
       <c r="N16">
-        <v>0.019679</v>
+        <v>0.009195</v>
       </c>
       <c r="O16">
-        <v>0.0007110951218997493</v>
+        <v>0.0003340335262130221</v>
       </c>
       <c r="P16">
-        <v>0.0007110951218997495</v>
+        <v>0.0003340335262130222</v>
       </c>
       <c r="Q16">
-        <v>0.048558385117</v>
+        <v>0.030632060555</v>
       </c>
       <c r="R16">
-        <v>0.437025466053</v>
+        <v>0.275688544995</v>
       </c>
       <c r="S16">
-        <v>0.0002299317194309627</v>
+        <v>0.0001462180148448241</v>
       </c>
       <c r="T16">
-        <v>0.0002299317194309628</v>
+        <v>0.0001462180148448241</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="H17">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="I17">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="J17">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.2298373333333333</v>
+        <v>0.2087793333333333</v>
       </c>
       <c r="N17">
-        <v>0.689512</v>
+        <v>0.626338</v>
       </c>
       <c r="O17">
-        <v>0.02491532190107932</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="P17">
-        <v>0.02491532190107933</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="Q17">
-        <v>0.3711856078595555</v>
+        <v>0.1620399735731111</v>
       </c>
       <c r="R17">
-        <v>3.340670470736</v>
+        <v>1.458359762158</v>
       </c>
       <c r="S17">
-        <v>0.001757623216619184</v>
+        <v>0.0007734759866652419</v>
       </c>
       <c r="T17">
-        <v>0.001757623216619185</v>
+        <v>0.0007734759866652421</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="H18">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="I18">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="J18">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>25.337258</v>
       </c>
       <c r="O18">
-        <v>0.9155546809347732</v>
+        <v>0.9204452022087118</v>
       </c>
       <c r="P18">
-        <v>0.9155546809347734</v>
+        <v>0.920445202208712</v>
       </c>
       <c r="Q18">
-        <v>13.63982862114711</v>
+        <v>6.555004832430889</v>
       </c>
       <c r="R18">
-        <v>122.758457590324</v>
+        <v>58.995043491878</v>
       </c>
       <c r="S18">
-        <v>0.06458676992752869</v>
+        <v>0.03128943259221346</v>
       </c>
       <c r="T18">
-        <v>0.06458676992752872</v>
+        <v>0.03128943259221347</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="H19">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="I19">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="J19">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1612,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.04220933333333334</v>
+        <v>0.05870933333333334</v>
       </c>
       <c r="N19">
-        <v>0.126628</v>
+        <v>0.176128</v>
       </c>
       <c r="O19">
-        <v>0.004575667111942756</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="P19">
-        <v>0.004575667111942757</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="Q19">
-        <v>0.06816776379822223</v>
+        <v>0.04556609444977777</v>
       </c>
       <c r="R19">
-        <v>0.613509874184</v>
+        <v>0.410094850048</v>
       </c>
       <c r="S19">
-        <v>0.0003227852635981014</v>
+        <v>0.000217503613990171</v>
       </c>
       <c r="T19">
-        <v>0.0003227852635981015</v>
+        <v>0.0002175036139901711</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="H20">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="I20">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="J20">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5003796666666667</v>
+        <v>0.4594193333333333</v>
       </c>
       <c r="N20">
-        <v>1.501139</v>
+        <v>1.378258</v>
       </c>
       <c r="O20">
-        <v>0.05424323493030479</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="P20">
-        <v>0.0542432349303048</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="Q20">
-        <v>0.8081094922157777</v>
+        <v>0.3565692803197777</v>
       </c>
       <c r="R20">
-        <v>7.272985429941999</v>
+        <v>3.209123522878</v>
       </c>
       <c r="S20">
-        <v>0.003826527685917729</v>
+        <v>0.001702035428840759</v>
       </c>
       <c r="T20">
-        <v>0.003826527685917731</v>
+        <v>0.001702035428840759</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="H21">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="I21">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="J21">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,28 +1736,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.006559666666666666</v>
+        <v>0.003065</v>
       </c>
       <c r="N21">
-        <v>0.019679</v>
+        <v>0.009195</v>
       </c>
       <c r="O21">
-        <v>0.0007110951218997493</v>
+        <v>0.0003340335262130221</v>
       </c>
       <c r="P21">
-        <v>0.0007110951218997495</v>
+        <v>0.0003340335262130222</v>
       </c>
       <c r="Q21">
-        <v>0.01059381356244444</v>
+        <v>0.002378839471666666</v>
       </c>
       <c r="R21">
-        <v>0.09534432206199998</v>
+        <v>0.021409555245</v>
       </c>
       <c r="S21">
-        <v>5.016340147792775E-05</v>
+        <v>1.135506978242882E-05</v>
       </c>
       <c r="T21">
-        <v>5.016340147792778E-05</v>
+        <v>1.135506978242882E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="H22">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="I22">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="J22">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1798,28 +1798,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.2298373333333333</v>
+        <v>0.2087793333333333</v>
       </c>
       <c r="N22">
-        <v>0.689512</v>
+        <v>0.626338</v>
       </c>
       <c r="O22">
-        <v>0.02491532190107932</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="P22">
-        <v>0.02491532190107933</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="Q22">
-        <v>1.466790526843556</v>
+        <v>1.361782687737778</v>
       </c>
       <c r="R22">
-        <v>13.201114741592</v>
+        <v>12.25604418964</v>
       </c>
       <c r="S22">
-        <v>0.006945487727187886</v>
+        <v>0.006500286224413506</v>
       </c>
       <c r="T22">
-        <v>0.006945487727187888</v>
+        <v>0.006500286224413506</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="H23">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="I23">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="J23">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>25.337258</v>
       </c>
       <c r="O23">
-        <v>0.9155546809347732</v>
+        <v>0.9204452022087118</v>
       </c>
       <c r="P23">
-        <v>0.9155546809347734</v>
+        <v>0.920445202208712</v>
       </c>
       <c r="Q23">
-        <v>53.89964208105312</v>
+        <v>55.08821003858223</v>
       </c>
       <c r="R23">
-        <v>485.096778729478</v>
+        <v>495.79389034724</v>
       </c>
       <c r="S23">
-        <v>0.2552234253785186</v>
+        <v>0.2629561501007618</v>
       </c>
       <c r="T23">
-        <v>0.2552234253785187</v>
+        <v>0.2629561501007618</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="H24">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="I24">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="J24">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1922,28 +1922,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.04220933333333334</v>
+        <v>0.05870933333333334</v>
       </c>
       <c r="N24">
-        <v>0.126628</v>
+        <v>0.176128</v>
       </c>
       <c r="O24">
-        <v>0.004575667111942756</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="P24">
-        <v>0.004575667111942757</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="Q24">
-        <v>0.2693742107942223</v>
+        <v>0.3829371062044444</v>
       </c>
       <c r="R24">
-        <v>2.424367897148</v>
+        <v>3.44643395584</v>
       </c>
       <c r="S24">
-        <v>0.001275529968903149</v>
+        <v>0.001827898693889724</v>
       </c>
       <c r="T24">
-        <v>0.001275529968903149</v>
+        <v>0.001827898693889724</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="H25">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="I25">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="J25">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.5003796666666667</v>
+        <v>0.4594193333333333</v>
       </c>
       <c r="N25">
-        <v>1.501139</v>
+        <v>1.378258</v>
       </c>
       <c r="O25">
-        <v>0.05424323493030479</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="P25">
-        <v>0.0542432349303048</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="Q25">
-        <v>3.193354814238778</v>
+        <v>2.996605480804444</v>
       </c>
       <c r="R25">
-        <v>28.740193328149</v>
+        <v>26.96944932724</v>
       </c>
       <c r="S25">
-        <v>0.01512104575598843</v>
+        <v>0.01430389261243564</v>
       </c>
       <c r="T25">
-        <v>0.01512104575598844</v>
+        <v>0.01430389261243564</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="H26">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="I26">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="J26">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2046,28 +2046,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.006559666666666666</v>
+        <v>0.003065</v>
       </c>
       <c r="N26">
-        <v>0.019679</v>
+        <v>0.009195</v>
       </c>
       <c r="O26">
-        <v>0.0007110951218997493</v>
+        <v>0.0003340335262130221</v>
       </c>
       <c r="P26">
-        <v>0.0007110951218997495</v>
+        <v>0.0003340335262130222</v>
       </c>
       <c r="Q26">
-        <v>0.04186289836544444</v>
+        <v>0.01999174856666667</v>
       </c>
       <c r="R26">
-        <v>0.376766085289</v>
+        <v>0.1799257371</v>
       </c>
       <c r="S26">
-        <v>0.0001982275188587441</v>
+        <v>9.542791884490833E-05</v>
       </c>
       <c r="T26">
-        <v>0.0001982275188587442</v>
+        <v>9.542791884490834E-05</v>
       </c>
     </row>
   </sheetData>
